--- a/Code/Results/Cases/Case_1_108/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_108/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9949949447417396</v>
+        <v>1.033724118193505</v>
       </c>
       <c r="D2">
-        <v>1.043450082069618</v>
+        <v>1.053372488444328</v>
       </c>
       <c r="E2">
-        <v>1.015874923982307</v>
+        <v>1.04432869495017</v>
       </c>
       <c r="F2">
-        <v>1.036124053329591</v>
+        <v>1.058495503476715</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053690870452942</v>
+        <v>1.040484152365476</v>
       </c>
       <c r="J2">
-        <v>1.01732639370316</v>
+        <v>1.038847275504187</v>
       </c>
       <c r="K2">
-        <v>1.05433554175015</v>
+        <v>1.056118638277352</v>
       </c>
       <c r="L2">
-        <v>1.027117438891389</v>
+        <v>1.047100052824963</v>
       </c>
       <c r="M2">
-        <v>1.04710205747853</v>
+        <v>1.061227580791977</v>
       </c>
       <c r="N2">
-        <v>1.018771113871187</v>
+        <v>1.040322557792851</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.999944495486381</v>
+        <v>1.034787669137142</v>
       </c>
       <c r="D3">
-        <v>1.046498307615643</v>
+        <v>1.05401881545104</v>
       </c>
       <c r="E3">
-        <v>1.019826341904314</v>
+        <v>1.045222706549989</v>
       </c>
       <c r="F3">
-        <v>1.039987986149127</v>
+        <v>1.059353671967494</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054613236940363</v>
+        <v>1.040612638187751</v>
       </c>
       <c r="J3">
-        <v>1.020436673725212</v>
+        <v>1.039553081922015</v>
       </c>
       <c r="K3">
-        <v>1.056568891634891</v>
+        <v>1.056578424074054</v>
       </c>
       <c r="L3">
-        <v>1.030211673352291</v>
+        <v>1.047805064088466</v>
       </c>
       <c r="M3">
-        <v>1.0501335551232</v>
+        <v>1.061899681753507</v>
       </c>
       <c r="N3">
-        <v>1.021885810847623</v>
+        <v>1.041029366536749</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.00308171028894</v>
+        <v>1.035476523672629</v>
       </c>
       <c r="D4">
-        <v>1.048430903164831</v>
+        <v>1.054436804874988</v>
       </c>
       <c r="E4">
-        <v>1.022336527333107</v>
+        <v>1.045801945050375</v>
       </c>
       <c r="F4">
-        <v>1.042440606895023</v>
+        <v>1.059909300257495</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055186810435783</v>
+        <v>1.040694390328803</v>
       </c>
       <c r="J4">
-        <v>1.02240691276478</v>
+        <v>1.040009889982377</v>
       </c>
       <c r="K4">
-        <v>1.057977941561324</v>
+        <v>1.05687502181404</v>
       </c>
       <c r="L4">
-        <v>1.032172642085247</v>
+        <v>1.048261371768856</v>
       </c>
       <c r="M4">
-        <v>1.0520524354372</v>
+        <v>1.062334267414406</v>
       </c>
       <c r="N4">
-        <v>1.023858847852618</v>
+        <v>1.041486823316953</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.004385530231797</v>
+        <v>1.035766277249511</v>
       </c>
       <c r="D5">
-        <v>1.049234088064461</v>
+        <v>1.054612471512971</v>
       </c>
       <c r="E5">
-        <v>1.023381036505403</v>
+        <v>1.046045636175057</v>
       </c>
       <c r="F5">
-        <v>1.043460654436596</v>
+        <v>1.060142965369367</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055422471184502</v>
+        <v>1.040728426300761</v>
       </c>
       <c r="J5">
-        <v>1.023225417217234</v>
+        <v>1.040201956396754</v>
       </c>
       <c r="K5">
-        <v>1.05856187592529</v>
+        <v>1.056999491316653</v>
       </c>
       <c r="L5">
-        <v>1.032987493438383</v>
+        <v>1.048453230982708</v>
       </c>
       <c r="M5">
-        <v>1.05284920838225</v>
+        <v>1.062516892145063</v>
       </c>
       <c r="N5">
-        <v>1.024678514675278</v>
+        <v>1.041679162487669</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.004603581041049</v>
+        <v>1.035814937472915</v>
       </c>
       <c r="D6">
-        <v>1.049368409373948</v>
+        <v>1.054641963374757</v>
       </c>
       <c r="E6">
-        <v>1.023555793573206</v>
+        <v>1.046086563468182</v>
       </c>
       <c r="F6">
-        <v>1.043631288047099</v>
+        <v>1.060182203359453</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055461721699364</v>
+        <v>1.040734121566393</v>
       </c>
       <c r="J6">
-        <v>1.023362283745443</v>
+        <v>1.040234206600233</v>
       </c>
       <c r="K6">
-        <v>1.058659432537363</v>
+        <v>1.057020377344837</v>
       </c>
       <c r="L6">
-        <v>1.033123760293992</v>
+        <v>1.048485446574983</v>
       </c>
       <c r="M6">
-        <v>1.052982416497444</v>
+        <v>1.062547551203204</v>
       </c>
       <c r="N6">
-        <v>1.024815575569656</v>
+        <v>1.041711458490137</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.003099190406699</v>
+        <v>1.035480394749196</v>
       </c>
       <c r="D7">
-        <v>1.04844167149171</v>
+        <v>1.054439152363832</v>
       </c>
       <c r="E7">
-        <v>1.022350525937072</v>
+        <v>1.045805200560079</v>
       </c>
       <c r="F7">
-        <v>1.042454279710185</v>
+        <v>1.059912422193635</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055189980710191</v>
+        <v>1.040694846426921</v>
       </c>
       <c r="J7">
-        <v>1.022417887658579</v>
+        <v>1.040012456288476</v>
       </c>
       <c r="K7">
-        <v>1.057985776978984</v>
+        <v>1.056876685848426</v>
       </c>
       <c r="L7">
-        <v>1.032183567235019</v>
+        <v>1.048263935294205</v>
       </c>
       <c r="M7">
-        <v>1.052063120567156</v>
+        <v>1.062336707951531</v>
       </c>
       <c r="N7">
-        <v>1.023869838332024</v>
+        <v>1.041489393267502</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9966816033339969</v>
+        <v>1.034083412140533</v>
       </c>
       <c r="D8">
-        <v>1.044488643015165</v>
+        <v>1.053590963749656</v>
       </c>
       <c r="E8">
-        <v>1.017220226416041</v>
+        <v>1.044630673759313</v>
       </c>
       <c r="F8">
-        <v>1.037439967456882</v>
+        <v>1.058785455125227</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054007465675274</v>
+        <v>1.040527861513099</v>
       </c>
       <c r="J8">
-        <v>1.018386505093664</v>
+        <v>1.039085784157855</v>
       </c>
       <c r="K8">
-        <v>1.055097910508455</v>
+        <v>1.056274213610524</v>
       </c>
       <c r="L8">
-        <v>1.028171883528266</v>
+        <v>1.047338289689924</v>
       </c>
       <c r="M8">
-        <v>1.048135592454007</v>
+        <v>1.061454783635289</v>
       </c>
       <c r="N8">
-        <v>1.019832730741462</v>
+        <v>1.040561405156164</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.984842386371057</v>
+        <v>1.031626863934725</v>
       </c>
       <c r="D9">
-        <v>1.037206019796735</v>
+        <v>1.052094679841397</v>
       </c>
       <c r="E9">
-        <v>1.007803954229584</v>
+        <v>1.042566822994187</v>
       </c>
       <c r="F9">
-        <v>1.028222330251775</v>
+        <v>1.056802230925094</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051740867460109</v>
+        <v>1.040223019508431</v>
       </c>
       <c r="J9">
-        <v>1.010941992380817</v>
+        <v>1.037453694077083</v>
       </c>
       <c r="K9">
-        <v>1.049722977849792</v>
+        <v>1.055205633357185</v>
       </c>
       <c r="L9">
-        <v>1.020771674001987</v>
+        <v>1.045708126714201</v>
       </c>
       <c r="M9">
-        <v>1.040873532910643</v>
+        <v>1.05989840969255</v>
       </c>
       <c r="N9">
-        <v>1.012377645966665</v>
+        <v>1.038926997320274</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9765491778266941</v>
+        <v>1.02999261884139</v>
       </c>
       <c r="D10">
-        <v>1.032120081813106</v>
+        <v>1.051096135790948</v>
       </c>
       <c r="E10">
-        <v>1.001245634418521</v>
+        <v>1.04119489443852</v>
       </c>
       <c r="F10">
-        <v>1.021794952305743</v>
+        <v>1.055481937888665</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050099810477858</v>
+        <v>1.040012706417362</v>
       </c>
       <c r="J10">
-        <v>1.005725136397041</v>
+        <v>1.036366223903598</v>
       </c>
       <c r="K10">
-        <v>1.045932644719728</v>
+        <v>1.054488650761594</v>
       </c>
       <c r="L10">
-        <v>1.01559243491365</v>
+        <v>1.044622034370938</v>
       </c>
       <c r="M10">
-        <v>1.035781535198353</v>
+        <v>1.058859343992745</v>
       </c>
       <c r="N10">
-        <v>1.00715338144901</v>
+        <v>1.037837982814409</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9728524909745513</v>
+        <v>1.02928579440466</v>
       </c>
       <c r="D11">
-        <v>1.029858758227538</v>
+        <v>1.050663533743051</v>
       </c>
       <c r="E11">
-        <v>0.9983324115916788</v>
+        <v>1.0406017890041</v>
       </c>
       <c r="F11">
-        <v>1.018938670996104</v>
+        <v>1.054910694218656</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049356667416542</v>
+        <v>1.039919965782448</v>
       </c>
       <c r="J11">
-        <v>1.003399933064753</v>
+        <v>1.03589548428482</v>
       </c>
       <c r="K11">
-        <v>1.044238726018217</v>
+        <v>1.054177114994729</v>
       </c>
       <c r="L11">
-        <v>1.013285844856852</v>
+        <v>1.044151916377906</v>
       </c>
       <c r="M11">
-        <v>1.033512056366556</v>
+        <v>1.058409079876097</v>
       </c>
       <c r="N11">
-        <v>1.004824876061286</v>
+        <v>1.037366574691377</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9714625108154833</v>
+        <v>1.029023370819217</v>
       </c>
       <c r="D12">
-        <v>1.029009530824121</v>
+        <v>1.050502813802406</v>
       </c>
       <c r="E12">
-        <v>0.9972386521822738</v>
+        <v>1.040381626747315</v>
       </c>
       <c r="F12">
-        <v>1.017866154624288</v>
+        <v>1.054698578154315</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.049075581531934</v>
+        <v>1.039885266926018</v>
       </c>
       <c r="J12">
-        <v>1.002525733750901</v>
+        <v>1.035720652501391</v>
       </c>
       <c r="K12">
-        <v>1.043601287039358</v>
+        <v>1.054061236078093</v>
       </c>
       <c r="L12">
-        <v>1.012418947163296</v>
+        <v>1.043977319496925</v>
       </c>
       <c r="M12">
-        <v>1.032658889363597</v>
+        <v>1.058241781515362</v>
       </c>
       <c r="N12">
-        <v>1.003949435284136</v>
+        <v>1.037191494626762</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.971761446244447</v>
+        <v>1.029079656024614</v>
       </c>
       <c r="D13">
-        <v>1.029192119167093</v>
+        <v>1.050537290209347</v>
       </c>
       <c r="E13">
-        <v>0.9974738054446785</v>
+        <v>1.040428845788888</v>
       </c>
       <c r="F13">
-        <v>1.018096746045248</v>
+        <v>1.054744074613556</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049136106577455</v>
+        <v>1.039892721290679</v>
       </c>
       <c r="J13">
-        <v>1.002713737746661</v>
+        <v>1.03575815351442</v>
       </c>
       <c r="K13">
-        <v>1.043738398355154</v>
+        <v>1.054086099749612</v>
       </c>
       <c r="L13">
-        <v>1.012605366728819</v>
+        <v>1.044014769937526</v>
       </c>
       <c r="M13">
-        <v>1.032842365314189</v>
+        <v>1.058277669836005</v>
       </c>
       <c r="N13">
-        <v>1.004137706267134</v>
+        <v>1.037229048895532</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9727379448401803</v>
+        <v>1.029264099889933</v>
       </c>
       <c r="D14">
-        <v>1.029788752334455</v>
+        <v>1.05065024923152</v>
       </c>
       <c r="E14">
-        <v>0.99824224272061</v>
+        <v>1.040583587390048</v>
       </c>
       <c r="F14">
-        <v>1.01885025585374</v>
+        <v>1.054893159217603</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049333536733802</v>
+        <v>1.039917102678079</v>
       </c>
       <c r="J14">
-        <v>1.003327889365718</v>
+        <v>1.035881032185917</v>
       </c>
       <c r="K14">
-        <v>1.044186205227175</v>
+        <v>1.054167539677671</v>
       </c>
       <c r="L14">
-        <v>1.013214396565005</v>
+        <v>1.044137483613044</v>
       </c>
       <c r="M14">
-        <v>1.033441743880958</v>
+        <v>1.058395251959326</v>
       </c>
       <c r="N14">
-        <v>1.004752730051935</v>
+        <v>1.037352102068836</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9733373320269002</v>
+        <v>1.0293777580764</v>
       </c>
       <c r="D15">
-        <v>1.030155116927989</v>
+        <v>1.050719842785501</v>
       </c>
       <c r="E15">
-        <v>0.9987141378611526</v>
+        <v>1.040678947843402</v>
       </c>
       <c r="F15">
-        <v>1.019312967697391</v>
+        <v>1.054985024382455</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049454505933633</v>
+        <v>1.039932091632595</v>
       </c>
       <c r="J15">
-        <v>1.003704877644989</v>
+        <v>1.035956744704475</v>
       </c>
       <c r="K15">
-        <v>1.044461011464423</v>
+        <v>1.05421769625275</v>
       </c>
       <c r="L15">
-        <v>1.013588281748284</v>
+        <v>1.044213095009856</v>
       </c>
       <c r="M15">
-        <v>1.033809676875658</v>
+        <v>1.058467691565487</v>
       </c>
       <c r="N15">
-        <v>1.005130253697804</v>
+        <v>1.037427922107855</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9767922055837008</v>
+        <v>1.030039545621161</v>
       </c>
       <c r="D16">
-        <v>1.032268880561851</v>
+        <v>1.051124841546653</v>
       </c>
       <c r="E16">
-        <v>1.001437375894302</v>
+        <v>1.041234276964208</v>
       </c>
       <c r="F16">
-        <v>1.021982924534794</v>
+        <v>1.055519859088458</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050148431273724</v>
+        <v>1.04001882609626</v>
       </c>
       <c r="J16">
-        <v>1.005878009484142</v>
+        <v>1.03639746838046</v>
       </c>
       <c r="K16">
-        <v>1.04604392718206</v>
+        <v>1.054509303766394</v>
       </c>
       <c r="L16">
-        <v>1.015744124890203</v>
+        <v>1.044653238140517</v>
       </c>
       <c r="M16">
-        <v>1.0359307520335</v>
+        <v>1.058889219434451</v>
       </c>
       <c r="N16">
-        <v>1.00730647163343</v>
+        <v>1.037869271662012</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9789303896075032</v>
+        <v>1.030454885601384</v>
       </c>
       <c r="D17">
-        <v>1.033578700855849</v>
+        <v>1.051378827266076</v>
       </c>
       <c r="E17">
-        <v>1.003125503939384</v>
+        <v>1.041582874931625</v>
       </c>
       <c r="F17">
-        <v>1.023637733605331</v>
+        <v>1.05585546873243</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050574888116563</v>
+        <v>1.040072784663383</v>
       </c>
       <c r="J17">
-        <v>1.007223033579335</v>
+        <v>1.03667396111729</v>
       </c>
       <c r="K17">
-        <v>1.047022520405716</v>
+        <v>1.054691933829186</v>
       </c>
       <c r="L17">
-        <v>1.017078952786802</v>
+        <v>1.044929373587218</v>
       </c>
       <c r="M17">
-        <v>1.037243623945779</v>
+        <v>1.059153542017832</v>
       </c>
       <c r="N17">
-        <v>1.008653405817114</v>
+        <v>1.038146157050241</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.980167431056592</v>
+        <v>1.030697224961497</v>
       </c>
       <c r="D18">
-        <v>1.034337024691877</v>
+        <v>1.05152695093358</v>
       </c>
       <c r="E18">
-        <v>1.004103120508789</v>
+        <v>1.04178629769659</v>
       </c>
       <c r="F18">
-        <v>1.024595935167848</v>
+        <v>1.056051267672147</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050820503424921</v>
+        <v>1.04010409625701</v>
       </c>
       <c r="J18">
-        <v>1.008001209153058</v>
+        <v>1.036835248332774</v>
       </c>
       <c r="K18">
-        <v>1.047588257789898</v>
+        <v>1.054798354802489</v>
       </c>
       <c r="L18">
-        <v>1.017851402625283</v>
+        <v>1.045090454798783</v>
       </c>
       <c r="M18">
-        <v>1.038003199772383</v>
+        <v>1.059307683852846</v>
       </c>
       <c r="N18">
-        <v>1.00943268648941</v>
+        <v>1.038307673312072</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9805875416538695</v>
+        <v>1.030779869745213</v>
       </c>
       <c r="D19">
-        <v>1.034594642988091</v>
+        <v>1.051577453510266</v>
       </c>
       <c r="E19">
-        <v>1.004435286705521</v>
+        <v>1.041855675087336</v>
       </c>
       <c r="F19">
-        <v>1.024921483021606</v>
+        <v>1.056118037389395</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.05090372566746</v>
+        <v>1.040114745285583</v>
       </c>
       <c r="J19">
-        <v>1.008265485423442</v>
+        <v>1.036890245409944</v>
       </c>
       <c r="K19">
-        <v>1.047780311017992</v>
+        <v>1.054834623917623</v>
       </c>
       <c r="L19">
-        <v>1.018113763031496</v>
+        <v>1.045145382033115</v>
       </c>
       <c r="M19">
-        <v>1.038261157707044</v>
+        <v>1.059360236593861</v>
       </c>
       <c r="N19">
-        <v>1.009697338062411</v>
+        <v>1.038362748491399</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9787020368968088</v>
+        <v>1.030410315423767</v>
       </c>
       <c r="D20">
-        <v>1.033438759005862</v>
+        <v>1.051351579255868</v>
       </c>
       <c r="E20">
-        <v>1.002945116340569</v>
+        <v>1.041545464200686</v>
       </c>
       <c r="F20">
-        <v>1.023460918424143</v>
+        <v>1.055819456483159</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.05052945816826</v>
+        <v>1.040067012122832</v>
       </c>
       <c r="J20">
-        <v>1.00707938637688</v>
+        <v>1.036644294644572</v>
       </c>
       <c r="K20">
-        <v>1.046918052235841</v>
+        <v>1.054672350105556</v>
       </c>
       <c r="L20">
-        <v>1.016936376358546</v>
+        <v>1.044899745198618</v>
       </c>
       <c r="M20">
-        <v>1.037103409846638</v>
+        <v>1.059125186117058</v>
       </c>
       <c r="N20">
-        <v>1.008509554619155</v>
+        <v>1.038116448447729</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9724508642653789</v>
+        <v>1.029209782386674</v>
       </c>
       <c r="D21">
-        <v>1.029613317976037</v>
+        <v>1.050616986492672</v>
       </c>
       <c r="E21">
-        <v>0.9980162842007011</v>
+        <v>1.040538015875893</v>
       </c>
       <c r="F21">
-        <v>1.018628690074143</v>
+        <v>1.054849255594359</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049275539193597</v>
+        <v>1.039909929887231</v>
       </c>
       <c r="J21">
-        <v>1.003147331994338</v>
+        <v>1.035844846871942</v>
       </c>
       <c r="K21">
-        <v>1.044054567536317</v>
+        <v>1.05414356207387</v>
       </c>
       <c r="L21">
-        <v>1.013035336397732</v>
+        <v>1.044101346773814</v>
       </c>
       <c r="M21">
-        <v>1.033265526875414</v>
+        <v>1.058360628331877</v>
       </c>
       <c r="N21">
-        <v>1.004571916268377</v>
+        <v>1.037315865367564</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9684223742223725</v>
+        <v>1.028455668321655</v>
       </c>
       <c r="D22">
-        <v>1.027154255583573</v>
+        <v>1.050154932930514</v>
       </c>
       <c r="E22">
-        <v>0.9948495331883603</v>
+        <v>1.039905423916948</v>
       </c>
       <c r="F22">
-        <v>1.015523244064191</v>
+        <v>1.054239653237856</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048457848977304</v>
+        <v>1.039809714974176</v>
       </c>
       <c r="J22">
-        <v>1.000613947003233</v>
+        <v>1.035342329121391</v>
       </c>
       <c r="K22">
-        <v>1.042206314989957</v>
+        <v>1.05381016311918</v>
       </c>
       <c r="L22">
-        <v>1.010523717010299</v>
+        <v>1.043599512069873</v>
       </c>
       <c r="M22">
-        <v>1.030793329830808</v>
+        <v>1.057879630511471</v>
       </c>
       <c r="N22">
-        <v>1.002034933580002</v>
+        <v>1.036812633984168</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9705676056768439</v>
+        <v>1.028855371238113</v>
       </c>
       <c r="D23">
-        <v>1.028463095143444</v>
+        <v>1.050399893338421</v>
       </c>
       <c r="E23">
-        <v>0.9965349359526279</v>
+        <v>1.040240693806598</v>
       </c>
       <c r="F23">
-        <v>1.017176074121826</v>
+        <v>1.054562776470422</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048894155432784</v>
+        <v>1.039862978142166</v>
       </c>
       <c r="J23">
-        <v>1.001962936142315</v>
+        <v>1.035608711097512</v>
       </c>
       <c r="K23">
-        <v>1.043190761356833</v>
+        <v>1.053986991854823</v>
       </c>
       <c r="L23">
-        <v>1.011860939205952</v>
+        <v>1.043865529662088</v>
       </c>
       <c r="M23">
-        <v>1.032109664264392</v>
+        <v>1.05813464366679</v>
       </c>
       <c r="N23">
-        <v>1.003385838438392</v>
+        <v>1.037079394253249</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9788052508745164</v>
+        <v>1.030430454525636</v>
       </c>
       <c r="D24">
-        <v>1.033502010204482</v>
+        <v>1.051363891526659</v>
       </c>
       <c r="E24">
-        <v>1.00302664744181</v>
+        <v>1.041562368217106</v>
       </c>
       <c r="F24">
-        <v>1.023540835247921</v>
+        <v>1.05583572873414</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050549995666716</v>
+        <v>1.04006962098457</v>
       </c>
       <c r="J24">
-        <v>1.007144313960099</v>
+        <v>1.036657699604336</v>
       </c>
       <c r="K24">
-        <v>1.046965272516657</v>
+        <v>1.05468119946891</v>
       </c>
       <c r="L24">
-        <v>1.017000819423304</v>
+        <v>1.04491313294244</v>
       </c>
       <c r="M24">
-        <v>1.037166785688467</v>
+        <v>1.05913799903027</v>
       </c>
       <c r="N24">
-        <v>1.008574574406989</v>
+        <v>1.038129872444074</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9879702927943264</v>
+        <v>1.032261332954627</v>
       </c>
       <c r="D25">
-        <v>1.039128068713012</v>
+        <v>1.052481692399356</v>
       </c>
       <c r="E25">
-        <v>1.010285615149097</v>
+        <v>1.043099682339992</v>
       </c>
       <c r="F25">
-        <v>1.030653087179608</v>
+        <v>1.057314620876504</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052349203426741</v>
+        <v>1.040303079991812</v>
       </c>
       <c r="J25">
-        <v>1.012909399317906</v>
+        <v>1.037875527118313</v>
       </c>
       <c r="K25">
-        <v>1.05114788659235</v>
+        <v>1.055482702490929</v>
       </c>
       <c r="L25">
-        <v>1.022726331254503</v>
+        <v>1.046129446135158</v>
       </c>
       <c r="M25">
-        <v>1.04279348492023</v>
+        <v>1.060301036219514</v>
       </c>
       <c r="N25">
-        <v>1.014347846847269</v>
+        <v>1.039349429412807</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_108/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_108/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.033724118193505</v>
+        <v>0.9949949447417393</v>
       </c>
       <c r="D2">
-        <v>1.053372488444328</v>
+        <v>1.043450082069618</v>
       </c>
       <c r="E2">
-        <v>1.04432869495017</v>
+        <v>1.015874923982307</v>
       </c>
       <c r="F2">
-        <v>1.058495503476715</v>
+        <v>1.036124053329592</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040484152365476</v>
+        <v>1.053690870452942</v>
       </c>
       <c r="J2">
-        <v>1.038847275504187</v>
+        <v>1.01732639370316</v>
       </c>
       <c r="K2">
-        <v>1.056118638277352</v>
+        <v>1.05433554175015</v>
       </c>
       <c r="L2">
-        <v>1.047100052824963</v>
+        <v>1.027117438891389</v>
       </c>
       <c r="M2">
-        <v>1.061227580791977</v>
+        <v>1.04710205747853</v>
       </c>
       <c r="N2">
-        <v>1.040322557792851</v>
+        <v>1.018771113871187</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.034787669137142</v>
+        <v>0.999944495486381</v>
       </c>
       <c r="D3">
-        <v>1.05401881545104</v>
+        <v>1.046498307615643</v>
       </c>
       <c r="E3">
-        <v>1.045222706549989</v>
+        <v>1.019826341904314</v>
       </c>
       <c r="F3">
-        <v>1.059353671967494</v>
+        <v>1.039987986149126</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040612638187751</v>
+        <v>1.054613236940363</v>
       </c>
       <c r="J3">
-        <v>1.039553081922015</v>
+        <v>1.020436673725212</v>
       </c>
       <c r="K3">
-        <v>1.056578424074054</v>
+        <v>1.056568891634891</v>
       </c>
       <c r="L3">
-        <v>1.047805064088466</v>
+        <v>1.03021167335229</v>
       </c>
       <c r="M3">
-        <v>1.061899681753507</v>
+        <v>1.050133555123199</v>
       </c>
       <c r="N3">
-        <v>1.041029366536749</v>
+        <v>1.021885810847623</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.035476523672629</v>
+        <v>1.00308171028894</v>
       </c>
       <c r="D4">
-        <v>1.054436804874988</v>
+        <v>1.048430903164831</v>
       </c>
       <c r="E4">
-        <v>1.045801945050375</v>
+        <v>1.022336527333107</v>
       </c>
       <c r="F4">
-        <v>1.059909300257495</v>
+        <v>1.042440606895023</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040694390328803</v>
+        <v>1.055186810435783</v>
       </c>
       <c r="J4">
-        <v>1.040009889982377</v>
+        <v>1.022406912764781</v>
       </c>
       <c r="K4">
-        <v>1.05687502181404</v>
+        <v>1.057977941561324</v>
       </c>
       <c r="L4">
-        <v>1.048261371768856</v>
+        <v>1.032172642085247</v>
       </c>
       <c r="M4">
-        <v>1.062334267414406</v>
+        <v>1.0520524354372</v>
       </c>
       <c r="N4">
-        <v>1.041486823316953</v>
+        <v>1.023858847852618</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.035766277249511</v>
+        <v>1.004385530231797</v>
       </c>
       <c r="D5">
-        <v>1.054612471512971</v>
+        <v>1.049234088064461</v>
       </c>
       <c r="E5">
-        <v>1.046045636175057</v>
+        <v>1.023381036505403</v>
       </c>
       <c r="F5">
-        <v>1.060142965369367</v>
+        <v>1.043460654436597</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040728426300761</v>
+        <v>1.055422471184502</v>
       </c>
       <c r="J5">
-        <v>1.040201956396754</v>
+        <v>1.023225417217234</v>
       </c>
       <c r="K5">
-        <v>1.056999491316653</v>
+        <v>1.058561875925291</v>
       </c>
       <c r="L5">
-        <v>1.048453230982708</v>
+        <v>1.032987493438383</v>
       </c>
       <c r="M5">
-        <v>1.062516892145063</v>
+        <v>1.05284920838225</v>
       </c>
       <c r="N5">
-        <v>1.041679162487669</v>
+        <v>1.024678514675278</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.035814937472915</v>
+        <v>1.004603581041049</v>
       </c>
       <c r="D6">
-        <v>1.054641963374757</v>
+        <v>1.049368409373947</v>
       </c>
       <c r="E6">
-        <v>1.046086563468182</v>
+        <v>1.023555793573206</v>
       </c>
       <c r="F6">
-        <v>1.060182203359453</v>
+        <v>1.043631288047098</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040734121566393</v>
+        <v>1.055461721699364</v>
       </c>
       <c r="J6">
-        <v>1.040234206600233</v>
+        <v>1.023362283745442</v>
       </c>
       <c r="K6">
-        <v>1.057020377344837</v>
+        <v>1.058659432537362</v>
       </c>
       <c r="L6">
-        <v>1.048485446574983</v>
+        <v>1.033123760293991</v>
       </c>
       <c r="M6">
-        <v>1.062547551203204</v>
+        <v>1.052982416497443</v>
       </c>
       <c r="N6">
-        <v>1.041711458490137</v>
+        <v>1.024815575569656</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.035480394749196</v>
+        <v>1.003099190406698</v>
       </c>
       <c r="D7">
-        <v>1.054439152363832</v>
+        <v>1.048441671491709</v>
       </c>
       <c r="E7">
-        <v>1.045805200560079</v>
+        <v>1.022350525937072</v>
       </c>
       <c r="F7">
-        <v>1.059912422193635</v>
+        <v>1.042454279710185</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040694846426921</v>
+        <v>1.055189980710191</v>
       </c>
       <c r="J7">
-        <v>1.040012456288476</v>
+        <v>1.022417887658579</v>
       </c>
       <c r="K7">
-        <v>1.056876685848426</v>
+        <v>1.057985776978984</v>
       </c>
       <c r="L7">
-        <v>1.048263935294205</v>
+        <v>1.032183567235019</v>
       </c>
       <c r="M7">
-        <v>1.062336707951531</v>
+        <v>1.052063120567156</v>
       </c>
       <c r="N7">
-        <v>1.041489393267502</v>
+        <v>1.023869838332025</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.034083412140533</v>
+        <v>0.9966816033339969</v>
       </c>
       <c r="D8">
-        <v>1.053590963749656</v>
+        <v>1.044488643015165</v>
       </c>
       <c r="E8">
-        <v>1.044630673759313</v>
+        <v>1.017220226416041</v>
       </c>
       <c r="F8">
-        <v>1.058785455125227</v>
+        <v>1.037439967456881</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040527861513099</v>
+        <v>1.054007465675273</v>
       </c>
       <c r="J8">
-        <v>1.039085784157855</v>
+        <v>1.018386505093664</v>
       </c>
       <c r="K8">
-        <v>1.056274213610524</v>
+        <v>1.055097910508455</v>
       </c>
       <c r="L8">
-        <v>1.047338289689924</v>
+        <v>1.028171883528266</v>
       </c>
       <c r="M8">
-        <v>1.061454783635289</v>
+        <v>1.048135592454007</v>
       </c>
       <c r="N8">
-        <v>1.040561405156164</v>
+        <v>1.019832730741462</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.031626863934725</v>
+        <v>0.9848423863710568</v>
       </c>
       <c r="D9">
-        <v>1.052094679841397</v>
+        <v>1.037206019796735</v>
       </c>
       <c r="E9">
-        <v>1.042566822994187</v>
+        <v>1.007803954229584</v>
       </c>
       <c r="F9">
-        <v>1.056802230925094</v>
+        <v>1.028222330251775</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040223019508431</v>
+        <v>1.051740867460109</v>
       </c>
       <c r="J9">
-        <v>1.037453694077083</v>
+        <v>1.010941992380817</v>
       </c>
       <c r="K9">
-        <v>1.055205633357185</v>
+        <v>1.049722977849792</v>
       </c>
       <c r="L9">
-        <v>1.045708126714201</v>
+        <v>1.020771674001986</v>
       </c>
       <c r="M9">
-        <v>1.05989840969255</v>
+        <v>1.040873532910643</v>
       </c>
       <c r="N9">
-        <v>1.038926997320274</v>
+        <v>1.012377645966664</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.02999261884139</v>
+        <v>0.9765491778266936</v>
       </c>
       <c r="D10">
-        <v>1.051096135790948</v>
+        <v>1.032120081813105</v>
       </c>
       <c r="E10">
-        <v>1.04119489443852</v>
+        <v>1.00124563441852</v>
       </c>
       <c r="F10">
-        <v>1.055481937888665</v>
+        <v>1.021794952305742</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040012706417362</v>
+        <v>1.050099810477858</v>
       </c>
       <c r="J10">
-        <v>1.036366223903598</v>
+        <v>1.005725136397041</v>
       </c>
       <c r="K10">
-        <v>1.054488650761594</v>
+        <v>1.045932644719728</v>
       </c>
       <c r="L10">
-        <v>1.044622034370938</v>
+        <v>1.015592434913649</v>
       </c>
       <c r="M10">
-        <v>1.058859343992745</v>
+        <v>1.035781535198352</v>
       </c>
       <c r="N10">
-        <v>1.037837982814409</v>
+        <v>1.00715338144901</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.02928579440466</v>
+        <v>0.9728524909745507</v>
       </c>
       <c r="D11">
-        <v>1.050663533743051</v>
+        <v>1.029858758227538</v>
       </c>
       <c r="E11">
-        <v>1.0406017890041</v>
+        <v>0.9983324115916782</v>
       </c>
       <c r="F11">
-        <v>1.054910694218656</v>
+        <v>1.018938670996104</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039919965782448</v>
+        <v>1.049356667416542</v>
       </c>
       <c r="J11">
-        <v>1.03589548428482</v>
+        <v>1.003399933064753</v>
       </c>
       <c r="K11">
-        <v>1.054177114994729</v>
+        <v>1.044238726018217</v>
       </c>
       <c r="L11">
-        <v>1.044151916377906</v>
+        <v>1.013285844856851</v>
       </c>
       <c r="M11">
-        <v>1.058409079876097</v>
+        <v>1.033512056366555</v>
       </c>
       <c r="N11">
-        <v>1.037366574691377</v>
+        <v>1.004824876061285</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.029023370819217</v>
+        <v>0.9714625108154834</v>
       </c>
       <c r="D12">
-        <v>1.050502813802406</v>
+        <v>1.029009530824121</v>
       </c>
       <c r="E12">
-        <v>1.040381626747315</v>
+        <v>0.9972386521822739</v>
       </c>
       <c r="F12">
-        <v>1.054698578154315</v>
+        <v>1.017866154624288</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039885266926018</v>
+        <v>1.049075581531933</v>
       </c>
       <c r="J12">
-        <v>1.035720652501391</v>
+        <v>1.002525733750901</v>
       </c>
       <c r="K12">
-        <v>1.054061236078093</v>
+        <v>1.043601287039358</v>
       </c>
       <c r="L12">
-        <v>1.043977319496925</v>
+        <v>1.012418947163296</v>
       </c>
       <c r="M12">
-        <v>1.058241781515362</v>
+        <v>1.032658889363597</v>
       </c>
       <c r="N12">
-        <v>1.037191494626762</v>
+        <v>1.003949435284137</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.029079656024614</v>
+        <v>0.9717614462444469</v>
       </c>
       <c r="D13">
-        <v>1.050537290209347</v>
+        <v>1.029192119167093</v>
       </c>
       <c r="E13">
-        <v>1.040428845788888</v>
+        <v>0.9974738054446779</v>
       </c>
       <c r="F13">
-        <v>1.054744074613556</v>
+        <v>1.018096746045247</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039892721290679</v>
+        <v>1.049136106577455</v>
       </c>
       <c r="J13">
-        <v>1.03575815351442</v>
+        <v>1.002713737746661</v>
       </c>
       <c r="K13">
-        <v>1.054086099749612</v>
+        <v>1.043738398355154</v>
       </c>
       <c r="L13">
-        <v>1.044014769937526</v>
+        <v>1.012605366728819</v>
       </c>
       <c r="M13">
-        <v>1.058277669836005</v>
+        <v>1.032842365314189</v>
       </c>
       <c r="N13">
-        <v>1.037229048895532</v>
+        <v>1.004137706267134</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.029264099889933</v>
+        <v>0.9727379448401804</v>
       </c>
       <c r="D14">
-        <v>1.05065024923152</v>
+        <v>1.029788752334455</v>
       </c>
       <c r="E14">
-        <v>1.040583587390048</v>
+        <v>0.9982422427206098</v>
       </c>
       <c r="F14">
-        <v>1.054893159217603</v>
+        <v>1.01885025585374</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039917102678079</v>
+        <v>1.049333536733802</v>
       </c>
       <c r="J14">
-        <v>1.035881032185917</v>
+        <v>1.003327889365718</v>
       </c>
       <c r="K14">
-        <v>1.054167539677671</v>
+        <v>1.044186205227176</v>
       </c>
       <c r="L14">
-        <v>1.044137483613044</v>
+        <v>1.013214396565005</v>
       </c>
       <c r="M14">
-        <v>1.058395251959326</v>
+        <v>1.033441743880958</v>
       </c>
       <c r="N14">
-        <v>1.037352102068836</v>
+        <v>1.004752730051935</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.0293777580764</v>
+        <v>0.9733373320269004</v>
       </c>
       <c r="D15">
-        <v>1.050719842785501</v>
+        <v>1.030155116927988</v>
       </c>
       <c r="E15">
-        <v>1.040678947843402</v>
+        <v>0.9987141378611527</v>
       </c>
       <c r="F15">
-        <v>1.054985024382455</v>
+        <v>1.019312967697391</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039932091632595</v>
+        <v>1.049454505933633</v>
       </c>
       <c r="J15">
-        <v>1.035956744704475</v>
+        <v>1.003704877644989</v>
       </c>
       <c r="K15">
-        <v>1.05421769625275</v>
+        <v>1.044461011464422</v>
       </c>
       <c r="L15">
-        <v>1.044213095009856</v>
+        <v>1.013588281748285</v>
       </c>
       <c r="M15">
-        <v>1.058467691565487</v>
+        <v>1.033809676875658</v>
       </c>
       <c r="N15">
-        <v>1.037427922107855</v>
+        <v>1.005130253697804</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.030039545621161</v>
+        <v>0.9767922055837009</v>
       </c>
       <c r="D16">
-        <v>1.051124841546653</v>
+        <v>1.032268880561851</v>
       </c>
       <c r="E16">
-        <v>1.041234276964208</v>
+        <v>1.001437375894302</v>
       </c>
       <c r="F16">
-        <v>1.055519859088458</v>
+        <v>1.021982924534793</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04001882609626</v>
+        <v>1.050148431273724</v>
       </c>
       <c r="J16">
-        <v>1.03639746838046</v>
+        <v>1.005878009484142</v>
       </c>
       <c r="K16">
-        <v>1.054509303766394</v>
+        <v>1.04604392718206</v>
       </c>
       <c r="L16">
-        <v>1.044653238140517</v>
+        <v>1.015744124890203</v>
       </c>
       <c r="M16">
-        <v>1.058889219434451</v>
+        <v>1.035930752033499</v>
       </c>
       <c r="N16">
-        <v>1.037869271662012</v>
+        <v>1.007306471633429</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.030454885601384</v>
+        <v>0.9789303896075041</v>
       </c>
       <c r="D17">
-        <v>1.051378827266076</v>
+        <v>1.033578700855849</v>
       </c>
       <c r="E17">
-        <v>1.041582874931625</v>
+        <v>1.003125503939384</v>
       </c>
       <c r="F17">
-        <v>1.05585546873243</v>
+        <v>1.023637733605331</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040072784663383</v>
+        <v>1.050574888116563</v>
       </c>
       <c r="J17">
-        <v>1.03667396111729</v>
+        <v>1.007223033579336</v>
       </c>
       <c r="K17">
-        <v>1.054691933829186</v>
+        <v>1.047022520405716</v>
       </c>
       <c r="L17">
-        <v>1.044929373587218</v>
+        <v>1.017078952786803</v>
       </c>
       <c r="M17">
-        <v>1.059153542017832</v>
+        <v>1.037243623945779</v>
       </c>
       <c r="N17">
-        <v>1.038146157050241</v>
+        <v>1.008653405817115</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.030697224961497</v>
+        <v>0.980167431056592</v>
       </c>
       <c r="D18">
-        <v>1.05152695093358</v>
+        <v>1.034337024691877</v>
       </c>
       <c r="E18">
-        <v>1.04178629769659</v>
+        <v>1.004103120508789</v>
       </c>
       <c r="F18">
-        <v>1.056051267672147</v>
+        <v>1.024595935167848</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04010409625701</v>
+        <v>1.050820503424921</v>
       </c>
       <c r="J18">
-        <v>1.036835248332774</v>
+        <v>1.008001209153058</v>
       </c>
       <c r="K18">
-        <v>1.054798354802489</v>
+        <v>1.047588257789898</v>
       </c>
       <c r="L18">
-        <v>1.045090454798783</v>
+        <v>1.017851402625283</v>
       </c>
       <c r="M18">
-        <v>1.059307683852846</v>
+        <v>1.038003199772383</v>
       </c>
       <c r="N18">
-        <v>1.038307673312072</v>
+        <v>1.00943268648941</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.030779869745213</v>
+        <v>0.9805875416538692</v>
       </c>
       <c r="D19">
-        <v>1.051577453510266</v>
+        <v>1.034594642988091</v>
       </c>
       <c r="E19">
-        <v>1.041855675087336</v>
+        <v>1.004435286705521</v>
       </c>
       <c r="F19">
-        <v>1.056118037389395</v>
+        <v>1.024921483021606</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040114745285583</v>
+        <v>1.05090372566746</v>
       </c>
       <c r="J19">
-        <v>1.036890245409944</v>
+        <v>1.008265485423441</v>
       </c>
       <c r="K19">
-        <v>1.054834623917623</v>
+        <v>1.047780311017992</v>
       </c>
       <c r="L19">
-        <v>1.045145382033115</v>
+        <v>1.018113763031495</v>
       </c>
       <c r="M19">
-        <v>1.059360236593861</v>
+        <v>1.038261157707044</v>
       </c>
       <c r="N19">
-        <v>1.038362748491399</v>
+        <v>1.009697338062411</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.030410315423767</v>
+        <v>0.9787020368968086</v>
       </c>
       <c r="D20">
-        <v>1.051351579255868</v>
+        <v>1.033438759005862</v>
       </c>
       <c r="E20">
-        <v>1.041545464200686</v>
+        <v>1.002945116340569</v>
       </c>
       <c r="F20">
-        <v>1.055819456483159</v>
+        <v>1.023460918424143</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040067012122832</v>
+        <v>1.05052945816826</v>
       </c>
       <c r="J20">
-        <v>1.036644294644572</v>
+        <v>1.00707938637688</v>
       </c>
       <c r="K20">
-        <v>1.054672350105556</v>
+        <v>1.046918052235841</v>
       </c>
       <c r="L20">
-        <v>1.044899745198618</v>
+        <v>1.016936376358546</v>
       </c>
       <c r="M20">
-        <v>1.059125186117058</v>
+        <v>1.037103409846637</v>
       </c>
       <c r="N20">
-        <v>1.038116448447729</v>
+        <v>1.008509554619155</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.029209782386674</v>
+        <v>0.9724508642653787</v>
       </c>
       <c r="D21">
-        <v>1.050616986492672</v>
+        <v>1.029613317976037</v>
       </c>
       <c r="E21">
-        <v>1.040538015875893</v>
+        <v>0.9980162842007009</v>
       </c>
       <c r="F21">
-        <v>1.054849255594359</v>
+        <v>1.018628690074143</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039909929887231</v>
+        <v>1.049275539193597</v>
       </c>
       <c r="J21">
-        <v>1.035844846871942</v>
+        <v>1.003147331994338</v>
       </c>
       <c r="K21">
-        <v>1.05414356207387</v>
+        <v>1.044054567536316</v>
       </c>
       <c r="L21">
-        <v>1.044101346773814</v>
+        <v>1.013035336397732</v>
       </c>
       <c r="M21">
-        <v>1.058360628331877</v>
+        <v>1.033265526875413</v>
       </c>
       <c r="N21">
-        <v>1.037315865367564</v>
+        <v>1.004571916268377</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.028455668321655</v>
+        <v>0.9684223742223725</v>
       </c>
       <c r="D22">
-        <v>1.050154932930514</v>
+        <v>1.027154255583572</v>
       </c>
       <c r="E22">
-        <v>1.039905423916948</v>
+        <v>0.9948495331883602</v>
       </c>
       <c r="F22">
-        <v>1.054239653237856</v>
+        <v>1.015523244064191</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039809714974176</v>
+        <v>1.048457848977304</v>
       </c>
       <c r="J22">
-        <v>1.035342329121391</v>
+        <v>1.000613947003233</v>
       </c>
       <c r="K22">
-        <v>1.05381016311918</v>
+        <v>1.042206314989957</v>
       </c>
       <c r="L22">
-        <v>1.043599512069873</v>
+        <v>1.010523717010299</v>
       </c>
       <c r="M22">
-        <v>1.057879630511471</v>
+        <v>1.030793329830808</v>
       </c>
       <c r="N22">
-        <v>1.036812633984168</v>
+        <v>1.002034933580002</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.028855371238113</v>
+        <v>0.970567605676844</v>
       </c>
       <c r="D23">
-        <v>1.050399893338421</v>
+        <v>1.028463095143444</v>
       </c>
       <c r="E23">
-        <v>1.040240693806598</v>
+        <v>0.9965349359526281</v>
       </c>
       <c r="F23">
-        <v>1.054562776470422</v>
+        <v>1.017176074121826</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039862978142166</v>
+        <v>1.048894155432784</v>
       </c>
       <c r="J23">
-        <v>1.035608711097512</v>
+        <v>1.001962936142316</v>
       </c>
       <c r="K23">
-        <v>1.053986991854823</v>
+        <v>1.043190761356833</v>
       </c>
       <c r="L23">
-        <v>1.043865529662088</v>
+        <v>1.011860939205952</v>
       </c>
       <c r="M23">
-        <v>1.05813464366679</v>
+        <v>1.032109664264392</v>
       </c>
       <c r="N23">
-        <v>1.037079394253249</v>
+        <v>1.003385838438393</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.030430454525636</v>
+        <v>0.9788052508745168</v>
       </c>
       <c r="D24">
-        <v>1.051363891526659</v>
+        <v>1.033502010204483</v>
       </c>
       <c r="E24">
-        <v>1.041562368217106</v>
+        <v>1.00302664744181</v>
       </c>
       <c r="F24">
-        <v>1.05583572873414</v>
+        <v>1.023540835247922</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04006962098457</v>
+        <v>1.050549995666716</v>
       </c>
       <c r="J24">
-        <v>1.036657699604336</v>
+        <v>1.007144313960099</v>
       </c>
       <c r="K24">
-        <v>1.05468119946891</v>
+        <v>1.046965272516657</v>
       </c>
       <c r="L24">
-        <v>1.04491313294244</v>
+        <v>1.017000819423304</v>
       </c>
       <c r="M24">
-        <v>1.05913799903027</v>
+        <v>1.037166785688467</v>
       </c>
       <c r="N24">
-        <v>1.038129872444074</v>
+        <v>1.00857457440699</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.032261332954627</v>
+        <v>0.9879702927943269</v>
       </c>
       <c r="D25">
-        <v>1.052481692399356</v>
+        <v>1.039128068713012</v>
       </c>
       <c r="E25">
-        <v>1.043099682339992</v>
+        <v>1.010285615149098</v>
       </c>
       <c r="F25">
-        <v>1.057314620876504</v>
+        <v>1.030653087179608</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040303079991812</v>
+        <v>1.052349203426742</v>
       </c>
       <c r="J25">
-        <v>1.037875527118313</v>
+        <v>1.012909399317906</v>
       </c>
       <c r="K25">
-        <v>1.055482702490929</v>
+        <v>1.05114788659235</v>
       </c>
       <c r="L25">
-        <v>1.046129446135158</v>
+        <v>1.022726331254503</v>
       </c>
       <c r="M25">
-        <v>1.060301036219514</v>
+        <v>1.04279348492023</v>
       </c>
       <c r="N25">
-        <v>1.039349429412807</v>
+        <v>1.01434784684727</v>
       </c>
     </row>
   </sheetData>
